--- a/Bases_de_Dados/FootyStats/Israel Israeli Premier League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Israel Israeli Premier League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP153"/>
+  <dimension ref="A1:BP155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1573,7 +1573,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.73</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.09</v>
@@ -4189,7 +4189,7 @@
         <v>1</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR17" t="n">
         <v>1.31</v>
@@ -5061,7 +5061,7 @@
         <v>2.73</v>
       </c>
       <c r="AQ21" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="AR21" t="n">
         <v>1.2</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ25" t="n">
         <v>1</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.36</v>
@@ -7895,7 +7895,7 @@
         <v>0.45</v>
       </c>
       <c r="AQ34" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="AR34" t="n">
         <v>1.34</v>
@@ -8985,7 +8985,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR39" t="n">
         <v>1.41</v>
@@ -9418,7 +9418,7 @@
         <v>2</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.18</v>
@@ -9854,7 +9854,7 @@
         <v>1</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.42</v>
@@ -11819,7 +11819,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ52" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="AR52" t="n">
         <v>1.52</v>
@@ -12688,10 +12688,10 @@
         <v>0</v>
       </c>
       <c r="AP56" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR56" t="n">
         <v>2.64</v>
@@ -12906,7 +12906,7 @@
         <v>0.33</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.82</v>
@@ -15307,7 +15307,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR68" t="n">
         <v>1.9</v>
@@ -15522,7 +15522,7 @@
         <v>1.75</v>
       </c>
       <c r="AP69" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.18</v>
@@ -15958,10 +15958,10 @@
         <v>2.25</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ71" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="AR71" t="n">
         <v>1.73</v>
@@ -17923,7 +17923,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR80" t="n">
         <v>1.11</v>
@@ -18795,7 +18795,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="AR84" t="n">
         <v>1.48</v>
@@ -19010,7 +19010,7 @@
         <v>1.2</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ85" t="n">
         <v>1</v>
@@ -19882,7 +19882,7 @@
         <v>2.33</v>
       </c>
       <c r="AP89" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.91</v>
@@ -21408,7 +21408,7 @@
         <v>1.71</v>
       </c>
       <c r="AP96" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.09</v>
@@ -21844,7 +21844,7 @@
         <v>1</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.45</v>
@@ -22283,7 +22283,7 @@
         <v>2.73</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR100" t="n">
         <v>1.52</v>
@@ -23591,7 +23591,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ106" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="AR106" t="n">
         <v>1.65</v>
@@ -24242,7 +24242,7 @@
         <v>0.88</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.73</v>
@@ -24896,7 +24896,7 @@
         <v>1.13</v>
       </c>
       <c r="AP112" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ112" t="n">
         <v>1</v>
@@ -25989,7 +25989,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR117" t="n">
         <v>1.52</v>
@@ -26425,7 +26425,7 @@
         <v>1</v>
       </c>
       <c r="AQ119" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="AR119" t="n">
         <v>1.76</v>
@@ -27076,7 +27076,7 @@
         <v>1.56</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.36</v>
@@ -27733,7 +27733,7 @@
         <v>2</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR125" t="n">
         <v>1.81</v>
@@ -27948,7 +27948,7 @@
         <v>1.67</v>
       </c>
       <c r="AP126" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ126" t="n">
         <v>1.42</v>
@@ -28387,7 +28387,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ128" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="AR128" t="n">
         <v>1.54</v>
@@ -30567,7 +30567,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR138" t="n">
         <v>1.56</v>
@@ -30782,7 +30782,7 @@
         <v>0.89</v>
       </c>
       <c r="AP139" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ139" t="n">
         <v>0.82</v>
@@ -31003,7 +31003,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ140" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="AR140" t="n">
         <v>1.33</v>
@@ -31218,7 +31218,7 @@
         <v>0.78</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ141" t="n">
         <v>1.18</v>
@@ -33419,25 +33419,25 @@
         <v>4</v>
       </c>
       <c r="AW151" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX151" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY151" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ151" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA151" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB151" t="n">
         <v>5</v>
       </c>
       <c r="BC151" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD151" t="n">
         <v>2.1</v>
@@ -33913,6 +33913,442 @@
       </c>
       <c r="BP153" t="n">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>8337040</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Israel Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>46062.625</v>
+      </c>
+      <c r="F154" t="n">
+        <v>22</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Maccabi Tel Aviv</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Maccabi Bnei Raina</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>4</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>4</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['21', '51', '54', '86']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R154" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="S154" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="T154" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="U154" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="V154" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X154" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BL154" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BM154" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BN154" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO154" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP154" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>8337195</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Israel Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>46062.64583333334</v>
+      </c>
+      <c r="F155" t="n">
+        <v>22</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Hapoel Be'er Sheva</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Beitar Jerusalem</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>2</v>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="n">
+        <v>3</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>['37', '65']</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R155" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S155" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="T155" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="U155" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="V155" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X155" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BL155" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM155" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN155" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO155" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="BP155" t="n">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Israel Israeli Premier League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Israel Israeli Premier League_20252026.xlsx
@@ -30214,7 +30214,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>8337032</v>
+        <v>8337043</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -30234,12 +30234,12 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Ironi Tiberias</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Bnei Sakhnin</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="I137" t="n">
@@ -30252,179 +30252,179 @@
         <v>0</v>
       </c>
       <c r="L137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
       <c r="N137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>['90+2']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>['66']</t>
+          <t>['80']</t>
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>3.18</v>
+        <v>2.4</v>
       </c>
       <c r="R137" t="n">
-        <v>1.94</v>
+        <v>2.16</v>
       </c>
       <c r="S137" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="T137" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="U137" t="n">
-        <v>2.53</v>
+        <v>2.99</v>
       </c>
       <c r="V137" t="n">
-        <v>3.1</v>
+        <v>2.59</v>
       </c>
       <c r="W137" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="X137" t="n">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="Y137" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="Z137" t="n">
-        <v>2.3</v>
+        <v>1.92</v>
       </c>
       <c r="AA137" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="AB137" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="AC137" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AD137" t="n">
-        <v>8.1</v>
+        <v>12.3</v>
       </c>
       <c r="AE137" t="n">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="AF137" t="n">
-        <v>2.88</v>
+        <v>3.93</v>
       </c>
       <c r="AG137" t="n">
-        <v>2.21</v>
+        <v>1.8</v>
       </c>
       <c r="AH137" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="AI137" t="n">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="AJ137" t="n">
-        <v>1.87</v>
+        <v>2.13</v>
       </c>
       <c r="AK137" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AL137" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AM137" t="n">
-        <v>1.49</v>
+        <v>1.78</v>
       </c>
       <c r="AN137" t="n">
-        <v>1.44</v>
+        <v>1</v>
       </c>
       <c r="AO137" t="n">
-        <v>1.4</v>
+        <v>0.33</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.27</v>
+        <v>0.83</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.36</v>
+        <v>0.55</v>
       </c>
       <c r="AR137" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AT137" t="n">
-        <v>2.59</v>
+        <v>2.63</v>
       </c>
       <c r="AU137" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AV137" t="n">
         <v>4</v>
       </c>
       <c r="AW137" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AX137" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY137" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AZ137" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB137" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC137" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD137" t="n">
-        <v>1.72</v>
+        <v>1.97</v>
       </c>
       <c r="BE137" t="n">
-        <v>7.1</v>
+        <v>6.93</v>
       </c>
       <c r="BF137" t="n">
-        <v>2.83</v>
+        <v>2.34</v>
       </c>
       <c r="BG137" t="n">
         <v>1.36</v>
       </c>
       <c r="BH137" t="n">
-        <v>2.65</v>
+        <v>2.77</v>
       </c>
       <c r="BI137" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="BJ137" t="n">
-        <v>1.99</v>
+        <v>2.07</v>
       </c>
       <c r="BK137" t="n">
-        <v>2.61</v>
+        <v>2.48</v>
       </c>
       <c r="BL137" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="BM137" t="n">
-        <v>2.91</v>
+        <v>2.77</v>
       </c>
       <c r="BN137" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="BO137" t="n">
-        <v>4.16</v>
+        <v>3.91</v>
       </c>
       <c r="BP137" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="138">
@@ -30432,7 +30432,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>8337043</v>
+        <v>8337032</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -30452,12 +30452,12 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Ironi Tiberias</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Maccabi Bnei Raina</t>
+          <t>Bnei Sakhnin</t>
         </is>
       </c>
       <c r="I138" t="n">
@@ -30470,179 +30470,179 @@
         <v>0</v>
       </c>
       <c r="L138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
       <c r="N138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['90+2']</t>
         </is>
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>['80']</t>
+          <t>['66']</t>
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>2.4</v>
+        <v>3.18</v>
       </c>
       <c r="R138" t="n">
-        <v>2.16</v>
+        <v>1.94</v>
       </c>
       <c r="S138" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="T138" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U138" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="V138" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X138" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK138" t="n">
         <v>1.33</v>
       </c>
-      <c r="U138" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="V138" t="n">
+      <c r="AL138" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AT138" t="n">
         <v>2.59</v>
       </c>
-      <c r="W138" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="X138" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="Y138" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z138" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AA138" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AB138" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AC138" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AD138" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="AE138" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AF138" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="AG138" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AH138" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AI138" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AJ138" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AK138" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AL138" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AM138" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AN138" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO138" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AP138" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AQ138" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AR138" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AS138" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AT138" t="n">
-        <v>2.63</v>
-      </c>
       <c r="AU138" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AV138" t="n">
         <v>4</v>
       </c>
       <c r="AW138" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AX138" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY138" t="n">
         <v>6</v>
       </c>
-      <c r="AY138" t="n">
-        <v>18</v>
-      </c>
       <c r="AZ138" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA138" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB138" t="n">
         <v>3</v>
       </c>
-      <c r="BB138" t="n">
+      <c r="BC138" t="n">
         <v>5</v>
       </c>
-      <c r="BC138" t="n">
-        <v>8</v>
-      </c>
       <c r="BD138" t="n">
-        <v>1.97</v>
+        <v>1.72</v>
       </c>
       <c r="BE138" t="n">
-        <v>6.93</v>
+        <v>7.1</v>
       </c>
       <c r="BF138" t="n">
-        <v>2.34</v>
+        <v>2.83</v>
       </c>
       <c r="BG138" t="n">
         <v>1.36</v>
       </c>
       <c r="BH138" t="n">
-        <v>2.77</v>
+        <v>2.65</v>
       </c>
       <c r="BI138" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="BJ138" t="n">
-        <v>2.07</v>
+        <v>1.99</v>
       </c>
       <c r="BK138" t="n">
-        <v>2.48</v>
+        <v>2.61</v>
       </c>
       <c r="BL138" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="BM138" t="n">
-        <v>2.77</v>
+        <v>2.91</v>
       </c>
       <c r="BN138" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="BO138" t="n">
-        <v>3.91</v>
+        <v>4.16</v>
       </c>
       <c r="BP138" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="139">
@@ -34073,13 +34073,13 @@
         <v>2</v>
       </c>
       <c r="AW154" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX154" t="n">
         <v>6</v>
       </c>
       <c r="AY154" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ154" t="n">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Israel Israeli Premier League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Israel Israeli Premier League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP155"/>
+  <dimension ref="A1:BP156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.82</v>
@@ -2227,7 +2227,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ21" t="n">
         <v>2.27</v>
@@ -5933,7 +5933,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR25" t="n">
         <v>1.97</v>
@@ -7456,7 +7456,7 @@
         <v>1.5</v>
       </c>
       <c r="AP32" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ32" t="n">
         <v>1</v>
@@ -8549,7 +8549,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR37" t="n">
         <v>1.32</v>
@@ -10293,7 +10293,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR45" t="n">
         <v>1.36</v>
@@ -11162,7 +11162,7 @@
         <v>2.33</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.91</v>
@@ -13127,7 +13127,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR58" t="n">
         <v>1.67</v>
@@ -13342,7 +13342,7 @@
         <v>0.75</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.73</v>
@@ -16394,7 +16394,7 @@
         <v>1.6</v>
       </c>
       <c r="AP73" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.36</v>
@@ -16615,7 +16615,7 @@
         <v>1</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR74" t="n">
         <v>1.72</v>
@@ -19228,7 +19228,7 @@
         <v>1.2</v>
       </c>
       <c r="AP86" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.45</v>
@@ -20539,7 +20539,7 @@
         <v>2</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR92" t="n">
         <v>1.28</v>
@@ -20757,7 +20757,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR93" t="n">
         <v>1.37</v>
@@ -22280,7 +22280,7 @@
         <v>0.5</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ100" t="n">
         <v>0.55</v>
@@ -24899,7 +24899,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR112" t="n">
         <v>2.26</v>
@@ -26204,7 +26204,7 @@
         <v>1.29</v>
       </c>
       <c r="AP118" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.18</v>
@@ -26861,7 +26861,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR121" t="n">
         <v>1.92</v>
@@ -29692,7 +29692,7 @@
         <v>2.11</v>
       </c>
       <c r="AP134" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ134" t="n">
         <v>2</v>
@@ -31436,7 +31436,7 @@
         <v>1.2</v>
       </c>
       <c r="AP142" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.09</v>
@@ -31875,7 +31875,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR144" t="n">
         <v>0.98</v>
@@ -34348,6 +34348,224 @@
         <v>3.82</v>
       </c>
       <c r="BP155" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>8337124</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Israel Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>46066.375</v>
+      </c>
+      <c r="F156" t="n">
+        <v>23</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Hapoel Tel Aviv</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Hapoel Katamon</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>2</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>2</v>
+      </c>
+      <c r="L156" t="n">
+        <v>3</v>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="n">
+        <v>4</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['42', '45', '88']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="R156" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="S156" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="T156" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V156" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X156" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BL156" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM156" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BN156" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO156" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BP156" t="n">
         <v>1.18</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Israel Israeli Premier League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Israel Israeli Premier League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP156"/>
+  <dimension ref="A1:BP161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.55</v>
@@ -1791,7 +1791,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.18</v>
@@ -2881,7 +2881,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR16" t="n">
         <v>0.95</v>
@@ -4625,7 +4625,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR19" t="n">
         <v>1.54</v>
@@ -4840,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.18</v>
@@ -5276,7 +5276,7 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.91</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.45</v>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.18</v>
@@ -6369,7 +6369,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR27" t="n">
         <v>1.17</v>
@@ -6587,7 +6587,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR28" t="n">
         <v>3.91</v>
@@ -7023,7 +7023,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR30" t="n">
         <v>1.2</v>
@@ -7459,7 +7459,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR32" t="n">
         <v>1.15</v>
@@ -7674,10 +7674,10 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR33" t="n">
         <v>1.53</v>
@@ -7892,7 +7892,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AQ34" t="n">
         <v>2.27</v>
@@ -8328,10 +8328,10 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR36" t="n">
         <v>2.01</v>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.55</v>
@@ -9639,7 +9639,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR42" t="n">
         <v>1.92</v>
@@ -10075,7 +10075,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR44" t="n">
         <v>0.77</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ45" t="n">
         <v>0.92</v>
@@ -10508,10 +10508,10 @@
         <v>1</v>
       </c>
       <c r="AP46" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR46" t="n">
         <v>1.14</v>
@@ -10729,7 +10729,7 @@
         <v>1</v>
       </c>
       <c r="AQ47" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR47" t="n">
         <v>1.63</v>
@@ -10944,10 +10944,10 @@
         <v>1</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR48" t="n">
         <v>1.66</v>
@@ -11598,7 +11598,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.45</v>
@@ -12037,7 +12037,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR53" t="n">
         <v>1.23</v>
@@ -13124,7 +13124,7 @@
         <v>0.25</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.92</v>
@@ -13345,7 +13345,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR59" t="n">
         <v>1.7</v>
@@ -13560,10 +13560,10 @@
         <v>1.5</v>
       </c>
       <c r="AP60" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR60" t="n">
         <v>1.31</v>
@@ -13778,10 +13778,10 @@
         <v>1.75</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR61" t="n">
         <v>1.36</v>
@@ -13996,7 +13996,7 @@
         <v>2.5</v>
       </c>
       <c r="AP62" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.91</v>
@@ -14217,7 +14217,7 @@
         <v>1</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR63" t="n">
         <v>1.57</v>
@@ -14435,7 +14435,7 @@
         <v>2</v>
       </c>
       <c r="AQ64" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR64" t="n">
         <v>1.07</v>
@@ -16179,7 +16179,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ72" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR72" t="n">
         <v>1.48</v>
@@ -16397,7 +16397,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR73" t="n">
         <v>1.6</v>
@@ -16830,10 +16830,10 @@
         <v>0.6</v>
       </c>
       <c r="AP75" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AQ75" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR75" t="n">
         <v>1.25</v>
@@ -17048,7 +17048,7 @@
         <v>1</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.42</v>
@@ -17266,7 +17266,7 @@
         <v>2.6</v>
       </c>
       <c r="AP77" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.91</v>
@@ -17487,7 +17487,7 @@
         <v>2</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR78" t="n">
         <v>1.15</v>
@@ -18138,10 +18138,10 @@
         <v>2.5</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ81" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR81" t="n">
         <v>1.55</v>
@@ -18356,7 +18356,7 @@
         <v>1</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.18</v>
@@ -19013,7 +19013,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR85" t="n">
         <v>1.71</v>
@@ -19667,7 +19667,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR88" t="n">
         <v>1.52</v>
@@ -20100,10 +20100,10 @@
         <v>1.33</v>
       </c>
       <c r="AP90" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR90" t="n">
         <v>1.28</v>
@@ -20318,10 +20318,10 @@
         <v>1</v>
       </c>
       <c r="AP91" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR91" t="n">
         <v>1.39</v>
@@ -20754,7 +20754,7 @@
         <v>0.86</v>
       </c>
       <c r="AP93" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.92</v>
@@ -21193,7 +21193,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR95" t="n">
         <v>1.48</v>
@@ -21411,7 +21411,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR96" t="n">
         <v>2.24</v>
@@ -21626,7 +21626,7 @@
         <v>1.29</v>
       </c>
       <c r="AP97" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.42</v>
@@ -22065,7 +22065,7 @@
         <v>2</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR99" t="n">
         <v>1.53</v>
@@ -22501,7 +22501,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR101" t="n">
         <v>1.34</v>
@@ -22934,7 +22934,7 @@
         <v>0.83</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.82</v>
@@ -23155,7 +23155,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ104" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR104" t="n">
         <v>1.43</v>
@@ -23588,7 +23588,7 @@
         <v>2.5</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ106" t="n">
         <v>2.27</v>
@@ -23806,7 +23806,7 @@
         <v>0.71</v>
       </c>
       <c r="AP107" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.82</v>
@@ -24027,7 +24027,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR108" t="n">
         <v>1.57</v>
@@ -24245,7 +24245,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR109" t="n">
         <v>1.92</v>
@@ -24678,7 +24678,7 @@
         <v>1.5</v>
       </c>
       <c r="AP111" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.42</v>
@@ -25553,7 +25553,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ115" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR115" t="n">
         <v>1.1</v>
@@ -25771,7 +25771,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR116" t="n">
         <v>1.46</v>
@@ -25986,7 +25986,7 @@
         <v>0.43</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ117" t="n">
         <v>0.55</v>
@@ -26640,10 +26640,10 @@
         <v>1.29</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR120" t="n">
         <v>1.61</v>
@@ -27079,7 +27079,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR122" t="n">
         <v>1.98</v>
@@ -28166,7 +28166,7 @@
         <v>0.63</v>
       </c>
       <c r="AP127" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ127" t="n">
         <v>0.82</v>
@@ -28384,7 +28384,7 @@
         <v>2.63</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ128" t="n">
         <v>2.27</v>
@@ -28605,7 +28605,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ129" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR129" t="n">
         <v>1.39</v>
@@ -28820,7 +28820,7 @@
         <v>1.13</v>
       </c>
       <c r="AP130" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AQ130" t="n">
         <v>1.18</v>
@@ -29041,7 +29041,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR131" t="n">
         <v>0.99</v>
@@ -29256,7 +29256,7 @@
         <v>2</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ132" t="n">
         <v>1.91</v>
@@ -29477,7 +29477,7 @@
         <v>1</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR133" t="n">
         <v>1.73</v>
@@ -29695,7 +29695,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ134" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR134" t="n">
         <v>1.6</v>
@@ -30567,7 +30567,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR138" t="n">
         <v>1.57</v>
@@ -31000,7 +31000,7 @@
         <v>2.67</v>
       </c>
       <c r="AP140" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ140" t="n">
         <v>2.27</v>
@@ -31439,7 +31439,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR142" t="n">
         <v>1.5</v>
@@ -31654,10 +31654,10 @@
         <v>1.9</v>
       </c>
       <c r="AP143" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AQ143" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR143" t="n">
         <v>1.2</v>
@@ -32093,7 +32093,7 @@
         <v>2</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR145" t="n">
         <v>1.8</v>
@@ -32308,10 +32308,10 @@
         <v>0.8</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ146" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR146" t="n">
         <v>1.68</v>
@@ -32526,7 +32526,7 @@
         <v>1.11</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.18</v>
@@ -34567,6 +34567,1096 @@
       </c>
       <c r="BP156" t="n">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>8337034</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Israel Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>46067.41666666666</v>
+      </c>
+      <c r="F157" t="n">
+        <v>23</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Hapoel Petah Tikva</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Hapoel Haifa</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1</v>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R157" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="S157" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="T157" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U157" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="V157" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X157" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BL157" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM157" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BN157" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO157" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="BP157" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>8337145</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Israel Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>46067.52083333334</v>
+      </c>
+      <c r="F158" t="n">
+        <v>23</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Ironi Kiryat Shmona</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Ironi Tiberias</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>2</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
+      <c r="K158" t="n">
+        <v>3</v>
+      </c>
+      <c r="L158" t="n">
+        <v>2</v>
+      </c>
+      <c r="M158" t="n">
+        <v>2</v>
+      </c>
+      <c r="N158" t="n">
+        <v>4</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>['4', '45+3']</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>['15', '59']</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R158" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S158" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T158" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U158" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V158" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X158" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BL158" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BM158" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BN158" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO158" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="BP158" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>8337079</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Israel Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>46067.5625</v>
+      </c>
+      <c r="F159" t="n">
+        <v>23</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Maccabi Bnei Raina</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Maccabi Netanya</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>4</v>
+      </c>
+      <c r="K159" t="n">
+        <v>4</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M159" t="n">
+        <v>4</v>
+      </c>
+      <c r="N159" t="n">
+        <v>4</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['1', '21', '27', '30']</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R159" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S159" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="T159" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U159" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V159" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X159" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BL159" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM159" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="BN159" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO159" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="BP159" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>8337144</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Israel Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>46067.60416666666</v>
+      </c>
+      <c r="F160" t="n">
+        <v>23</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Ashdod</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Hapoel Be'er Sheva</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1</v>
+      </c>
+      <c r="K160" t="n">
+        <v>2</v>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="n">
+        <v>2</v>
+      </c>
+      <c r="N160" t="n">
+        <v>3</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>['7', '55']</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="R160" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S160" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T160" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U160" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="V160" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X160" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BL160" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BM160" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BN160" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO160" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="BP160" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>8337062</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Israel Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>46068.63541666666</v>
+      </c>
+      <c r="F161" t="n">
+        <v>23</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Maccabi Haifa</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Bnei Sakhnin</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>3</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>3</v>
+      </c>
+      <c r="L161" t="n">
+        <v>4</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" t="n">
+        <v>4</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>['5', '21', '45+1', '50']</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R161" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S161" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="T161" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U161" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="V161" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X161" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>19</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>13</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BL161" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BM161" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BN161" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO161" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BP161" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Israel Israeli Premier League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Israel Israeli Premier League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP161"/>
+  <dimension ref="A1:BP162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.42</v>
@@ -4407,7 +4407,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR18" t="n">
         <v>2.11</v>
@@ -5279,7 +5279,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR22" t="n">
         <v>1.91</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.82</v>
@@ -8113,7 +8113,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR35" t="n">
         <v>0.86</v>
@@ -9200,7 +9200,7 @@
         <v>2</v>
       </c>
       <c r="AP40" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.45</v>
@@ -11165,7 +11165,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR49" t="n">
         <v>1.7</v>
@@ -11380,7 +11380,7 @@
         <v>2</v>
       </c>
       <c r="AP50" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.18</v>
@@ -13999,7 +13999,7 @@
         <v>0.42</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR62" t="n">
         <v>1.31</v>
@@ -14432,7 +14432,7 @@
         <v>2.25</v>
       </c>
       <c r="AP64" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ64" t="n">
         <v>2.08</v>
@@ -17269,7 +17269,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR77" t="n">
         <v>1.4</v>
@@ -17484,7 +17484,7 @@
         <v>1.8</v>
       </c>
       <c r="AP78" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.25</v>
@@ -19885,7 +19885,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR89" t="n">
         <v>2.33</v>
@@ -20536,7 +20536,7 @@
         <v>0.83</v>
       </c>
       <c r="AP92" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ92" t="n">
         <v>0.92</v>
@@ -22062,7 +22062,7 @@
         <v>1.57</v>
       </c>
       <c r="AP99" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.25</v>
@@ -23373,7 +23373,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR105" t="n">
         <v>1.85</v>
@@ -25114,7 +25114,7 @@
         <v>0.86</v>
       </c>
       <c r="AP113" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.18</v>
@@ -25335,7 +25335,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR114" t="n">
         <v>1.42</v>
@@ -27730,7 +27730,7 @@
         <v>0.38</v>
       </c>
       <c r="AP125" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.55</v>
@@ -29259,7 +29259,7 @@
         <v>2</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR132" t="n">
         <v>1.66</v>
@@ -32090,7 +32090,7 @@
         <v>1</v>
       </c>
       <c r="AP145" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ145" t="n">
         <v>1.18</v>
@@ -32747,7 +32747,7 @@
         <v>1</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AR148" t="n">
         <v>1.83</v>
@@ -35396,10 +35396,10 @@
         <v>3</v>
       </c>
       <c r="BB160" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC160" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD160" t="n">
         <v>8.300000000000001</v>
@@ -35657,6 +35657,224 @@
       </c>
       <c r="BP161" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>8337060</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Israel Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>46069.64583333334</v>
+      </c>
+      <c r="F162" t="n">
+        <v>23</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Beitar Jerusalem</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Maccabi Tel Aviv</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R162" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="S162" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T162" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="U162" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="V162" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X162" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BL162" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BM162" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BN162" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO162" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BP162" t="n">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Israel Israeli Premier League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Israel Israeli Premier League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP162"/>
+  <dimension ref="A1:BP167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.18</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ7" t="n">
         <v>2.27</v>
@@ -2445,7 +2445,7 @@
         <v>0.42</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.25</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.18</v>
@@ -4189,7 +4189,7 @@
         <v>1</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR17" t="n">
         <v>1.31</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.83</v>
@@ -4622,7 +4622,7 @@
         <v>3</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ19" t="n">
         <v>2.08</v>
@@ -4840,10 +4840,10 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR20" t="n">
         <v>1.77</v>
@@ -5497,7 +5497,7 @@
         <v>0.42</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR23" t="n">
         <v>1.36</v>
@@ -5715,7 +5715,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR24" t="n">
         <v>1.87</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.92</v>
@@ -6151,7 +6151,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR26" t="n">
         <v>0.8</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.25</v>
@@ -7241,7 +7241,7 @@
         <v>1</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR31" t="n">
         <v>1.74</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.83</v>
@@ -8328,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ36" t="n">
         <v>2.08</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.92</v>
@@ -8767,7 +8767,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR38" t="n">
         <v>1.75</v>
@@ -8985,7 +8985,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR39" t="n">
         <v>1.41</v>
@@ -9203,7 +9203,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR40" t="n">
         <v>0.85</v>
@@ -9421,7 +9421,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR41" t="n">
         <v>3.24</v>
@@ -9854,7 +9854,7 @@
         <v>1</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.42</v>
@@ -10072,7 +10072,7 @@
         <v>1</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.75</v>
@@ -10944,7 +10944,7 @@
         <v>1</v>
       </c>
       <c r="AP48" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.25</v>
@@ -11383,7 +11383,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR50" t="n">
         <v>1.02</v>
@@ -11601,7 +11601,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR51" t="n">
         <v>1.45</v>
@@ -12034,7 +12034,7 @@
         <v>2</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.25</v>
@@ -12252,7 +12252,7 @@
         <v>1</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.42</v>
@@ -12473,7 +12473,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR55" t="n">
         <v>2.03</v>
@@ -12691,7 +12691,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR56" t="n">
         <v>2.64</v>
@@ -12906,10 +12906,10 @@
         <v>0.33</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR57" t="n">
         <v>1.74</v>
@@ -13124,7 +13124,7 @@
         <v>0.25</v>
       </c>
       <c r="AP58" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.92</v>
@@ -14650,10 +14650,10 @@
         <v>1</v>
       </c>
       <c r="AP65" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR65" t="n">
         <v>1.23</v>
@@ -14868,7 +14868,7 @@
         <v>1</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.42</v>
@@ -15086,10 +15086,10 @@
         <v>0.25</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR67" t="n">
         <v>1.41</v>
@@ -15307,7 +15307,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR68" t="n">
         <v>1.9</v>
@@ -15525,7 +15525,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR69" t="n">
         <v>2.48</v>
@@ -15743,7 +15743,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR70" t="n">
         <v>1.44</v>
@@ -15958,7 +15958,7 @@
         <v>2.25</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ71" t="n">
         <v>2.27</v>
@@ -17702,10 +17702,10 @@
         <v>0.8</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR79" t="n">
         <v>1.02</v>
@@ -17920,10 +17920,10 @@
         <v>0</v>
       </c>
       <c r="AP80" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR80" t="n">
         <v>1.11</v>
@@ -18356,10 +18356,10 @@
         <v>1</v>
       </c>
       <c r="AP82" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR82" t="n">
         <v>1.75</v>
@@ -18577,7 +18577,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR83" t="n">
         <v>1.91</v>
@@ -18792,7 +18792,7 @@
         <v>2.4</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ84" t="n">
         <v>2.27</v>
@@ -19010,7 +19010,7 @@
         <v>1.2</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.18</v>
@@ -19231,7 +19231,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR86" t="n">
         <v>1.57</v>
@@ -20975,7 +20975,7 @@
         <v>1</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR94" t="n">
         <v>1.76</v>
@@ -21844,10 +21844,10 @@
         <v>1</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR98" t="n">
         <v>1.71</v>
@@ -22283,7 +22283,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR100" t="n">
         <v>1.52</v>
@@ -22498,7 +22498,7 @@
         <v>1</v>
       </c>
       <c r="AP101" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.18</v>
@@ -22716,10 +22716,10 @@
         <v>1.5</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR102" t="n">
         <v>1.04</v>
@@ -22937,7 +22937,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR103" t="n">
         <v>1.54</v>
@@ -23152,7 +23152,7 @@
         <v>2.29</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ104" t="n">
         <v>2.08</v>
@@ -23588,7 +23588,7 @@
         <v>2.5</v>
       </c>
       <c r="AP106" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ106" t="n">
         <v>2.27</v>
@@ -23809,7 +23809,7 @@
         <v>0.42</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR107" t="n">
         <v>1.21</v>
@@ -24242,7 +24242,7 @@
         <v>0.88</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.75</v>
@@ -24463,7 +24463,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR110" t="n">
         <v>1.82</v>
@@ -25117,7 +25117,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR113" t="n">
         <v>1.74</v>
@@ -25332,7 +25332,7 @@
         <v>1.88</v>
       </c>
       <c r="AP114" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.83</v>
@@ -25550,7 +25550,7 @@
         <v>2</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ115" t="n">
         <v>2.08</v>
@@ -25768,7 +25768,7 @@
         <v>1.5</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ116" t="n">
         <v>1.25</v>
@@ -25989,7 +25989,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ117" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR117" t="n">
         <v>1.52</v>
@@ -26207,7 +26207,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR118" t="n">
         <v>1.6</v>
@@ -26640,7 +26640,7 @@
         <v>1.29</v>
       </c>
       <c r="AP120" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ120" t="n">
         <v>1.18</v>
@@ -27076,7 +27076,7 @@
         <v>1.56</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.25</v>
@@ -27297,7 +27297,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR123" t="n">
         <v>1.54</v>
@@ -27512,10 +27512,10 @@
         <v>1.25</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR124" t="n">
         <v>1.46</v>
@@ -27733,7 +27733,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR125" t="n">
         <v>1.81</v>
@@ -28169,7 +28169,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR127" t="n">
         <v>1.33</v>
@@ -28602,7 +28602,7 @@
         <v>0.89</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ129" t="n">
         <v>0.75</v>
@@ -28823,7 +28823,7 @@
         <v>0.42</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR130" t="n">
         <v>1.19</v>
@@ -29038,7 +29038,7 @@
         <v>1.33</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.25</v>
@@ -29256,7 +29256,7 @@
         <v>2</v>
       </c>
       <c r="AP132" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ132" t="n">
         <v>1.83</v>
@@ -29910,10 +29910,10 @@
         <v>1.44</v>
       </c>
       <c r="AP135" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR135" t="n">
         <v>1.39</v>
@@ -30349,7 +30349,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ137" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR137" t="n">
         <v>1.56</v>
@@ -30564,7 +30564,7 @@
         <v>1.4</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ138" t="n">
         <v>1.25</v>
@@ -30785,7 +30785,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ139" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR139" t="n">
         <v>2.31</v>
@@ -31218,10 +31218,10 @@
         <v>0.78</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR141" t="n">
         <v>1.94</v>
@@ -31872,7 +31872,7 @@
         <v>1</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ144" t="n">
         <v>0.92</v>
@@ -32308,7 +32308,7 @@
         <v>0.8</v>
       </c>
       <c r="AP146" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ146" t="n">
         <v>0.75</v>
@@ -32529,7 +32529,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR147" t="n">
         <v>1.49</v>
@@ -32962,10 +32962,10 @@
         <v>1</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR149" t="n">
         <v>1.5</v>
@@ -33180,7 +33180,7 @@
         <v>1.45</v>
       </c>
       <c r="AP150" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.42</v>
@@ -33401,7 +33401,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR151" t="n">
         <v>1.63</v>
@@ -33616,10 +33616,10 @@
         <v>1.3</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR152" t="n">
         <v>0.98</v>
@@ -33837,7 +33837,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ153" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR153" t="n">
         <v>1.97</v>
@@ -34052,10 +34052,10 @@
         <v>0.6</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ154" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR154" t="n">
         <v>1.86</v>
@@ -35578,7 +35578,7 @@
         <v>1.36</v>
       </c>
       <c r="AP161" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ161" t="n">
         <v>1.25</v>
@@ -35875,6 +35875,1096 @@
       </c>
       <c r="BP162" t="n">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>8337155</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Israel Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>46074.41666666666</v>
+      </c>
+      <c r="F163" t="n">
+        <v>24</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Maccabi Tel Aviv</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Ashdod</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>2</v>
+      </c>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
+      <c r="K163" t="n">
+        <v>3</v>
+      </c>
+      <c r="L163" t="n">
+        <v>3</v>
+      </c>
+      <c r="M163" t="n">
+        <v>2</v>
+      </c>
+      <c r="N163" t="n">
+        <v>5</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['26', '42', '49']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>['37', '57']</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R163" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="S163" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T163" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U163" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="V163" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X163" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BL163" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM163" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN163" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO163" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BP163" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>8337139</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Israel Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>46074.52083333334</v>
+      </c>
+      <c r="F164" t="n">
+        <v>24</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Maccabi Haifa</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Hapoel Petah Tikva</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="n">
+        <v>1</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>2</v>
+      </c>
+      <c r="R164" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S164" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T164" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U164" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="V164" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X164" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL164" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM164" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN164" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO164" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP164" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>8337098</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Israel Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>46074.5625</v>
+      </c>
+      <c r="F165" t="n">
+        <v>24</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Hapoel Katamon</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Ironi Kiryat Shmona</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="n">
+        <v>1</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R165" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S165" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="T165" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U165" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="V165" t="n">
+        <v>3</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X165" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BL165" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BM165" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BN165" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO165" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="BP165" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>8337176</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Israel Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>46074.60416666666</v>
+      </c>
+      <c r="F166" t="n">
+        <v>24</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Ironi Tiberias</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Maccabi Bnei Raina</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>2</v>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="n">
+        <v>3</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>['68', '90+5']</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R166" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="S166" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="T166" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U166" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="V166" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X166" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BL166" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BM166" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="BN166" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO166" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BP166" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>8337154</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Israel Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>46074.60416666666</v>
+      </c>
+      <c r="F167" t="n">
+        <v>24</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Bnei Sakhnin</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Hapoel Tel Aviv</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="R167" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S167" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T167" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U167" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V167" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X167" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BL167" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BM167" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BN167" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO167" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BP167" t="n">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Israel Israeli Premier League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Israel Israeli Premier League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP167"/>
+  <dimension ref="A1:BP168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.75</v>
@@ -3971,7 +3971,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR16" t="n">
         <v>0.95</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.25</v>
@@ -7459,7 +7459,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR32" t="n">
         <v>1.15</v>
@@ -9418,7 +9418,7 @@
         <v>2</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.17</v>
@@ -10511,7 +10511,7 @@
         <v>0.42</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR46" t="n">
         <v>1.14</v>
@@ -12688,7 +12688,7 @@
         <v>0</v>
       </c>
       <c r="AP56" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AQ56" t="n">
         <v>0.5</v>
@@ -13563,7 +13563,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR60" t="n">
         <v>1.31</v>
@@ -15522,7 +15522,7 @@
         <v>1.75</v>
       </c>
       <c r="AP69" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.08</v>
@@ -19013,7 +19013,7 @@
         <v>2</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR85" t="n">
         <v>1.71</v>
@@ -19882,7 +19882,7 @@
         <v>2.33</v>
       </c>
       <c r="AP89" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.83</v>
@@ -21408,7 +21408,7 @@
         <v>1.71</v>
       </c>
       <c r="AP96" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.25</v>
@@ -22501,7 +22501,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR101" t="n">
         <v>1.34</v>
@@ -24896,7 +24896,7 @@
         <v>1.13</v>
       </c>
       <c r="AP112" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AQ112" t="n">
         <v>0.92</v>
@@ -26643,7 +26643,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR120" t="n">
         <v>1.61</v>
@@ -27948,7 +27948,7 @@
         <v>1.67</v>
       </c>
       <c r="AP126" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AQ126" t="n">
         <v>1.42</v>
@@ -29477,7 +29477,7 @@
         <v>1</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR133" t="n">
         <v>1.73</v>
@@ -30782,7 +30782,7 @@
         <v>0.89</v>
       </c>
       <c r="AP139" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AQ139" t="n">
         <v>1</v>
@@ -32093,7 +32093,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR145" t="n">
         <v>1.8</v>
@@ -34270,7 +34270,7 @@
         <v>2.5</v>
       </c>
       <c r="AP155" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AQ155" t="n">
         <v>2.27</v>
@@ -34709,7 +34709,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR157" t="n">
         <v>1.47</v>
@@ -36683,7 +36683,7 @@
         <v>2.61</v>
       </c>
       <c r="AU166" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV166" t="n">
         <v>2</v>
@@ -36695,19 +36695,19 @@
         <v>3</v>
       </c>
       <c r="AY166" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ166" t="n">
         <v>5</v>
       </c>
       <c r="BA166" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC166" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD166" t="n">
         <v>1.81</v>
@@ -36965,6 +36965,224 @@
       </c>
       <c r="BP167" t="n">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>8337150</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Israel Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>46075.63541666666</v>
+      </c>
+      <c r="F168" t="n">
+        <v>24</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Hapoel Be'er Sheva</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Hapoel Haifa</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
+      <c r="K168" t="n">
+        <v>2</v>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="n">
+        <v>2</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R168" t="n">
+        <v>3</v>
+      </c>
+      <c r="S168" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="T168" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U168" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="V168" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X168" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BL168" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM168" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BN168" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO168" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP168" t="n">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Israel Israeli Premier League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Israel Israeli Premier League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP168"/>
+  <dimension ref="A1:BP169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ6" t="n">
         <v>2.08</v>
@@ -2009,7 +2009,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ21" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR21" t="n">
         <v>1.2</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.75</v>
@@ -7895,7 +7895,7 @@
         <v>0.42</v>
       </c>
       <c r="AQ34" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR34" t="n">
         <v>1.34</v>
@@ -9636,7 +9636,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.25</v>
@@ -11819,7 +11819,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ52" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR52" t="n">
         <v>1.52</v>
@@ -12470,7 +12470,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.17</v>
@@ -15304,7 +15304,7 @@
         <v>0</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.5</v>
@@ -15961,7 +15961,7 @@
         <v>2</v>
       </c>
       <c r="AQ71" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR71" t="n">
         <v>1.73</v>
@@ -18574,7 +18574,7 @@
         <v>1.6</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.08</v>
@@ -18795,7 +18795,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR84" t="n">
         <v>1.48</v>
@@ -23370,7 +23370,7 @@
         <v>2</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.83</v>
@@ -23591,7 +23591,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ106" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR106" t="n">
         <v>1.65</v>
@@ -24460,7 +24460,7 @@
         <v>1</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.58</v>
@@ -26425,7 +26425,7 @@
         <v>1</v>
       </c>
       <c r="AQ119" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR119" t="n">
         <v>1.76</v>
@@ -26858,7 +26858,7 @@
         <v>1</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ121" t="n">
         <v>0.92</v>
@@ -28387,7 +28387,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ128" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR128" t="n">
         <v>1.54</v>
@@ -30128,7 +30128,7 @@
         <v>1.6</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.42</v>
@@ -31003,7 +31003,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ140" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR140" t="n">
         <v>1.33</v>
@@ -33834,7 +33834,7 @@
         <v>0.8</v>
       </c>
       <c r="AP153" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ153" t="n">
         <v>1</v>
@@ -34273,7 +34273,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ155" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR155" t="n">
         <v>2.27</v>
@@ -37183,6 +37183,224 @@
       </c>
       <c r="BP168" t="n">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>8337035</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Israel Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>46076.64583333334</v>
+      </c>
+      <c r="F169" t="n">
+        <v>24</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Maccabi Netanya</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Beitar Jerusalem</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>2</v>
+      </c>
+      <c r="J169" t="n">
+        <v>5</v>
+      </c>
+      <c r="K169" t="n">
+        <v>7</v>
+      </c>
+      <c r="L169" t="n">
+        <v>2</v>
+      </c>
+      <c r="M169" t="n">
+        <v>8</v>
+      </c>
+      <c r="N169" t="n">
+        <v>10</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>['13', '45+4']</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>['17', '19', '45+2', '45+9', '45+6', '79', '88', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R169" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S169" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T169" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U169" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="V169" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X169" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BL169" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BM169" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BN169" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO169" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP169" t="n">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Israel Israeli Premier League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Israel Israeli Premier League_20252026.xlsx
@@ -37243,7 +37243,7 @@
       </c>
       <c r="P169" t="inlineStr">
         <is>
-          <t>['17', '19', '45+2', '45+9', '45+6', '79', '88', '90+3']</t>
+          <t>['17', '19', '45+9', '45+6', '45+2', '79', '88', '90+3']</t>
         </is>
       </c>
       <c r="Q169" t="n">
